--- a/test/fixtures/upload_domain_changed.xlsx
+++ b/test/fixtures/upload_domain_changed.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -31,7 +31,10 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
-    <t xml:space="preserve">domain</t>
+    <t xml:space="preserve">domain_external_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">domain_name</t>
   </si>
   <si>
     <t xml:space="preserve">description</t>
@@ -47,6 +50,9 @@
   </si>
   <si>
     <t xml:space="preserve">domain2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Domain name</t>
   </si>
   <si>
     <t xml:space="preserve">Test</t>
@@ -138,7 +144,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -155,23 +161,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -192,31 +198,37 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
